--- a/data/pca/factorExposure/factorExposure_2016-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01027664769157295</v>
+        <v>-0.01289926386964501</v>
       </c>
       <c r="C2">
-        <v>-0.05532191589530883</v>
+        <v>0.03905702397251306</v>
       </c>
       <c r="D2">
-        <v>-0.0411338051506715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05396237350850621</v>
+      </c>
+      <c r="E2">
+        <v>0.08734682584687199</v>
+      </c>
+      <c r="F2">
+        <v>0.08640135796526113</v>
+      </c>
+      <c r="G2">
+        <v>0.006074585313062137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0402554740684144</v>
+        <v>-0.0255710027070451</v>
       </c>
       <c r="C3">
-        <v>-0.1175231258539161</v>
+        <v>0.06759078039909128</v>
       </c>
       <c r="D3">
-        <v>-0.09598090609517282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07340888424590149</v>
+      </c>
+      <c r="E3">
+        <v>0.06646267785577811</v>
+      </c>
+      <c r="F3">
+        <v>-0.02475123810543985</v>
+      </c>
+      <c r="G3">
+        <v>0.04181630689029072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05896078790905405</v>
+        <v>-0.05753268399245485</v>
       </c>
       <c r="C4">
-        <v>-0.06277522171766645</v>
+        <v>0.06486474693299595</v>
       </c>
       <c r="D4">
-        <v>-0.02789146943711882</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.04905050048521716</v>
+      </c>
+      <c r="E4">
+        <v>0.08457271931320302</v>
+      </c>
+      <c r="F4">
+        <v>0.06078297341448625</v>
+      </c>
+      <c r="G4">
+        <v>0.07832751766857701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03972624738328283</v>
+        <v>-0.03520155472987747</v>
       </c>
       <c r="C6">
-        <v>-0.03622611409931055</v>
+        <v>0.0281059723909891</v>
       </c>
       <c r="D6">
-        <v>-0.03348393770157579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05813694889125202</v>
+      </c>
+      <c r="E6">
+        <v>0.08765030806577429</v>
+      </c>
+      <c r="F6">
+        <v>0.04430925958066095</v>
+      </c>
+      <c r="G6">
+        <v>0.06168484920067477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0215228565379857</v>
+        <v>-0.01736335599912683</v>
       </c>
       <c r="C7">
-        <v>-0.04740904500568945</v>
+        <v>0.03997019169157184</v>
       </c>
       <c r="D7">
-        <v>0.008910202432178799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03172553461011377</v>
+      </c>
+      <c r="E7">
+        <v>0.06131726622105456</v>
+      </c>
+      <c r="F7">
+        <v>0.09123998442502776</v>
+      </c>
+      <c r="G7">
+        <v>0.07146604025199645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005858238309989577</v>
+        <v>-0.003270300042953073</v>
       </c>
       <c r="C8">
-        <v>-0.03599837119942311</v>
+        <v>0.03225435630685564</v>
       </c>
       <c r="D8">
-        <v>-0.0265812043349017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02976220837914296</v>
+      </c>
+      <c r="E8">
+        <v>0.05793728210429351</v>
+      </c>
+      <c r="F8">
+        <v>0.02893863573147815</v>
+      </c>
+      <c r="G8">
+        <v>0.0326069598619591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.033239713023943</v>
+        <v>-0.036908577908033</v>
       </c>
       <c r="C9">
-        <v>-0.04976440555416152</v>
+        <v>0.05227333591787001</v>
       </c>
       <c r="D9">
-        <v>-0.01196601534091313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03535849810758924</v>
+      </c>
+      <c r="E9">
+        <v>0.07167916126116272</v>
+      </c>
+      <c r="F9">
+        <v>0.0710248703113622</v>
+      </c>
+      <c r="G9">
+        <v>0.06862797913680121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08010801603286363</v>
+        <v>-0.1038929977930621</v>
       </c>
       <c r="C10">
-        <v>0.1877174802955097</v>
+        <v>-0.1955093343874769</v>
       </c>
       <c r="D10">
-        <v>0.008178623434935717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01393970935080631</v>
+      </c>
+      <c r="E10">
+        <v>0.04035026876209841</v>
+      </c>
+      <c r="F10">
+        <v>0.02366583058332694</v>
+      </c>
+      <c r="G10">
+        <v>0.02726277092662529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04094260516910128</v>
+        <v>-0.03607807942929672</v>
       </c>
       <c r="C11">
-        <v>-0.05262132234532107</v>
+        <v>0.04870295278436203</v>
       </c>
       <c r="D11">
-        <v>-0.01051610157687701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02973458660056138</v>
+      </c>
+      <c r="E11">
+        <v>0.02469707499366095</v>
+      </c>
+      <c r="F11">
+        <v>0.05479271177410169</v>
+      </c>
+      <c r="G11">
+        <v>0.05415854482345318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04284901438189672</v>
+        <v>-0.03812621516306494</v>
       </c>
       <c r="C12">
-        <v>-0.04845453428754141</v>
+        <v>0.04609232094013427</v>
       </c>
       <c r="D12">
-        <v>-0.001905012488500294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02401585002587412</v>
+      </c>
+      <c r="E12">
+        <v>0.03306643148895142</v>
+      </c>
+      <c r="F12">
+        <v>0.05623597289194381</v>
+      </c>
+      <c r="G12">
+        <v>0.05108325072136512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01377104339907555</v>
+        <v>-0.01087446917305593</v>
       </c>
       <c r="C13">
-        <v>-0.05431661479727103</v>
+        <v>0.04261555021072672</v>
       </c>
       <c r="D13">
-        <v>-0.008130722596818121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04203872362644351</v>
+      </c>
+      <c r="E13">
+        <v>0.09609463971572364</v>
+      </c>
+      <c r="F13">
+        <v>0.07942468527378502</v>
+      </c>
+      <c r="G13">
+        <v>0.0774825089907554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007426098609718961</v>
+        <v>-0.004216423602872158</v>
       </c>
       <c r="C14">
-        <v>-0.0426644744853194</v>
+        <v>0.03371721361928236</v>
       </c>
       <c r="D14">
-        <v>0.01082865542018434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02208118155476598</v>
+      </c>
+      <c r="E14">
+        <v>0.04977385150416409</v>
+      </c>
+      <c r="F14">
+        <v>0.09093357439820403</v>
+      </c>
+      <c r="G14">
+        <v>0.05648932871723725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0002347704058482817</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005330755525950584</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006951967750588527</v>
+      </c>
+      <c r="E15">
+        <v>0.004417646970616688</v>
+      </c>
+      <c r="F15">
+        <v>0.006460602527412482</v>
+      </c>
+      <c r="G15">
+        <v>0.00462058355365812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03787173766392072</v>
+        <v>-0.03392551885408757</v>
       </c>
       <c r="C16">
-        <v>-0.05037498889774028</v>
+        <v>0.04544672454914913</v>
       </c>
       <c r="D16">
-        <v>-0.005845391934301445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02326127295205288</v>
+      </c>
+      <c r="E16">
+        <v>0.03956828189522034</v>
+      </c>
+      <c r="F16">
+        <v>0.0613391894700499</v>
+      </c>
+      <c r="G16">
+        <v>0.04033183502082081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02255588458394554</v>
+        <v>-0.01697402078119019</v>
       </c>
       <c r="C19">
-        <v>-0.06227043936238139</v>
+        <v>0.04485730772060173</v>
       </c>
       <c r="D19">
-        <v>-0.09080087968011757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08811766907225289</v>
+      </c>
+      <c r="E19">
+        <v>0.1120867942817912</v>
+      </c>
+      <c r="F19">
+        <v>0.07362866700114368</v>
+      </c>
+      <c r="G19">
+        <v>0.02564824728230095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01629588708439293</v>
+        <v>-0.01283872164896514</v>
       </c>
       <c r="C20">
-        <v>-0.0484929915482411</v>
+        <v>0.03929024200057728</v>
       </c>
       <c r="D20">
-        <v>-0.008761320835866983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02982796380612196</v>
+      </c>
+      <c r="E20">
+        <v>0.07620896220635595</v>
+      </c>
+      <c r="F20">
+        <v>0.06600243156709944</v>
+      </c>
+      <c r="G20">
+        <v>0.05219691209782511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01060544487121601</v>
+        <v>-0.009543521514567528</v>
       </c>
       <c r="C21">
-        <v>-0.04959479126795416</v>
+        <v>0.0410936880913413</v>
       </c>
       <c r="D21">
-        <v>-0.03798054723455588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05611543782784192</v>
+      </c>
+      <c r="E21">
+        <v>0.1172808879784111</v>
+      </c>
+      <c r="F21">
+        <v>0.1050694209427368</v>
+      </c>
+      <c r="G21">
+        <v>0.07932407071582769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001141394978372849</v>
+        <v>-0.002383051374563529</v>
       </c>
       <c r="C22">
-        <v>-0.000772785853257125</v>
+        <v>0.02688235806276523</v>
       </c>
       <c r="D22">
-        <v>-0.002761568050017058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04199711729026642</v>
+      </c>
+      <c r="E22">
+        <v>0.04105102848451165</v>
+      </c>
+      <c r="F22">
+        <v>-0.001161254360531632</v>
+      </c>
+      <c r="G22">
+        <v>0.05275333199780276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001147062509062927</v>
+        <v>-0.002462088425787127</v>
       </c>
       <c r="C23">
-        <v>-0.0007731214839574854</v>
+        <v>0.02703527244950776</v>
       </c>
       <c r="D23">
-        <v>-0.00276727149222417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04158566845271196</v>
+      </c>
+      <c r="E23">
+        <v>0.04130087970967156</v>
+      </c>
+      <c r="F23">
+        <v>-0.001427614269655094</v>
+      </c>
+      <c r="G23">
+        <v>0.05281715116584923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03500799119070802</v>
+        <v>-0.03409386412676789</v>
       </c>
       <c r="C24">
-        <v>-0.05121999840572181</v>
+        <v>0.05270856089945486</v>
       </c>
       <c r="D24">
-        <v>-0.00673721659348062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02296771695599461</v>
+      </c>
+      <c r="E24">
+        <v>0.04032136423211464</v>
+      </c>
+      <c r="F24">
+        <v>0.06469146752942766</v>
+      </c>
+      <c r="G24">
+        <v>0.05109297931617519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04791094040764956</v>
+        <v>-0.04331247038135431</v>
       </c>
       <c r="C25">
-        <v>-0.06198560745185822</v>
+        <v>0.05666114585202586</v>
       </c>
       <c r="D25">
-        <v>0.004405830835162431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02229638245363801</v>
+      </c>
+      <c r="E25">
+        <v>0.03012706014867685</v>
+      </c>
+      <c r="F25">
+        <v>0.0592392303716228</v>
+      </c>
+      <c r="G25">
+        <v>0.06648831712784749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01586322591151185</v>
+        <v>-0.01456289570152567</v>
       </c>
       <c r="C26">
-        <v>-0.01819794684971831</v>
+        <v>0.01782781493798693</v>
       </c>
       <c r="D26">
-        <v>-0.0014565497247613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02212606104450392</v>
+      </c>
+      <c r="E26">
+        <v>0.0497997288836272</v>
+      </c>
+      <c r="F26">
+        <v>0.06657686404082848</v>
+      </c>
+      <c r="G26">
+        <v>0.0291478348768805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09498200217022053</v>
+        <v>-0.1392907494871124</v>
       </c>
       <c r="C28">
-        <v>0.2450858913127959</v>
+        <v>-0.2506721071402109</v>
       </c>
       <c r="D28">
-        <v>0.006603623140438391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02765942640055778</v>
+      </c>
+      <c r="E28">
+        <v>0.05558353553438229</v>
+      </c>
+      <c r="F28">
+        <v>0.03564047436890681</v>
+      </c>
+      <c r="G28">
+        <v>0.0468563514445096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006635626425881921</v>
+        <v>-0.005026984347710829</v>
       </c>
       <c r="C29">
-        <v>-0.03454925063449793</v>
+        <v>0.02995363895160322</v>
       </c>
       <c r="D29">
-        <v>0.01539751907224551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01571428623696334</v>
+      </c>
+      <c r="E29">
+        <v>0.04825512531146924</v>
+      </c>
+      <c r="F29">
+        <v>0.08035139754444026</v>
+      </c>
+      <c r="G29">
+        <v>0.06479121761322697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04445613826485744</v>
+        <v>-0.04034130228227937</v>
       </c>
       <c r="C30">
-        <v>-0.05413359078801218</v>
+        <v>0.05712600917785698</v>
       </c>
       <c r="D30">
-        <v>-0.06732983928697475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09508269687962512</v>
+      </c>
+      <c r="E30">
+        <v>0.07818432272323526</v>
+      </c>
+      <c r="F30">
+        <v>0.08529112322373004</v>
+      </c>
+      <c r="G30">
+        <v>0.04120109010645347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05818648109051523</v>
+        <v>-0.05680233697354933</v>
       </c>
       <c r="C31">
-        <v>-0.04511467011362109</v>
+        <v>0.06148447470129013</v>
       </c>
       <c r="D31">
-        <v>0.03386256867191718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0162520998050137</v>
+      </c>
+      <c r="E31">
+        <v>0.06511273234292701</v>
+      </c>
+      <c r="F31">
+        <v>0.0429994171789873</v>
+      </c>
+      <c r="G31">
+        <v>0.07988867841985424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00145067724462883</v>
+        <v>-0.004673359274307072</v>
       </c>
       <c r="C32">
-        <v>-0.04346489448221796</v>
+        <v>0.03455634841531807</v>
       </c>
       <c r="D32">
-        <v>-0.04711264003819628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05194111402823223</v>
+      </c>
+      <c r="E32">
+        <v>0.05823424083678728</v>
+      </c>
+      <c r="F32">
+        <v>0.07214874813702407</v>
+      </c>
+      <c r="G32">
+        <v>0.03465173132781483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03096826093397337</v>
+        <v>-0.02583863209879849</v>
       </c>
       <c r="C33">
-        <v>-0.06028951672778746</v>
+        <v>0.0536457872845798</v>
       </c>
       <c r="D33">
-        <v>-0.03978222305192697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0691946498867449</v>
+      </c>
+      <c r="E33">
+        <v>0.08979057714161064</v>
+      </c>
+      <c r="F33">
+        <v>0.09181140330357868</v>
+      </c>
+      <c r="G33">
+        <v>0.07893439994487243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04518311457418964</v>
+        <v>-0.04042403231340603</v>
       </c>
       <c r="C34">
-        <v>-0.06710871849645116</v>
+        <v>0.06459918806929286</v>
       </c>
       <c r="D34">
-        <v>-0.01374567447819173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03596074257176422</v>
+      </c>
+      <c r="E34">
+        <v>0.01292458234797159</v>
+      </c>
+      <c r="F34">
+        <v>0.06666385382636884</v>
+      </c>
+      <c r="G34">
+        <v>0.05216727943865193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01646007967117362</v>
+        <v>-0.01423200550522841</v>
       </c>
       <c r="C36">
-        <v>-0.01716730068209707</v>
+        <v>0.01363454552060105</v>
       </c>
       <c r="D36">
-        <v>0.004205369150683016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02106852894878994</v>
+      </c>
+      <c r="E36">
+        <v>0.05744774536082098</v>
+      </c>
+      <c r="F36">
+        <v>0.06116745895654188</v>
+      </c>
+      <c r="G36">
+        <v>0.04994016784902232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0295987661847357</v>
+        <v>-0.02307259880272861</v>
       </c>
       <c r="C38">
-        <v>-0.0306729719166836</v>
+        <v>0.02370366398921044</v>
       </c>
       <c r="D38">
-        <v>0.0152878459271411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01872576666556092</v>
+      </c>
+      <c r="E38">
+        <v>0.04925912996778727</v>
+      </c>
+      <c r="F38">
+        <v>0.05036858084006941</v>
+      </c>
+      <c r="G38">
+        <v>0.0337240679924205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04559211541886529</v>
+        <v>-0.03955410373326772</v>
       </c>
       <c r="C39">
-        <v>-0.0656278082029137</v>
+        <v>0.06410459879183243</v>
       </c>
       <c r="D39">
-        <v>-0.01533523811098089</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0469019288046056</v>
+      </c>
+      <c r="E39">
+        <v>0.0466087064172544</v>
+      </c>
+      <c r="F39">
+        <v>0.08510849768832367</v>
+      </c>
+      <c r="G39">
+        <v>0.03969294585021513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01224955023327908</v>
+        <v>-0.01277818748544202</v>
       </c>
       <c r="C40">
-        <v>-0.05271324129979259</v>
+        <v>0.03806564042754994</v>
       </c>
       <c r="D40">
-        <v>-0.0135055816644892</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02612892095340005</v>
+      </c>
+      <c r="E40">
+        <v>0.08288058519384688</v>
+      </c>
+      <c r="F40">
+        <v>0.05627277143439825</v>
+      </c>
+      <c r="G40">
+        <v>0.08934525740640469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02255643937485227</v>
+        <v>-0.01926582800315181</v>
       </c>
       <c r="C41">
-        <v>-0.01423818982662476</v>
+        <v>0.01036543378196195</v>
       </c>
       <c r="D41">
-        <v>-0.001124403840376627</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01442610129253801</v>
+      </c>
+      <c r="E41">
+        <v>0.0578523306988328</v>
+      </c>
+      <c r="F41">
+        <v>0.05574509359923405</v>
+      </c>
+      <c r="G41">
+        <v>0.04195113812022654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03996497397558755</v>
+        <v>-0.02936021305623634</v>
       </c>
       <c r="C43">
-        <v>-0.03435799080534153</v>
+        <v>0.02492291376632277</v>
       </c>
       <c r="D43">
-        <v>-0.02765904689142948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04136127088121641</v>
+      </c>
+      <c r="E43">
+        <v>0.07370935736026794</v>
+      </c>
+      <c r="F43">
+        <v>0.05583401225300123</v>
+      </c>
+      <c r="G43">
+        <v>0.06659156572923973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01309154194406103</v>
+        <v>-0.0141255647666784</v>
       </c>
       <c r="C44">
-        <v>-0.06806065149004795</v>
+        <v>0.04822908363279697</v>
       </c>
       <c r="D44">
-        <v>-0.00737287620361206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03003103249802565</v>
+      </c>
+      <c r="E44">
+        <v>0.08710060876788725</v>
+      </c>
+      <c r="F44">
+        <v>0.06798704320448627</v>
+      </c>
+      <c r="G44">
+        <v>0.03175327270542595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007727718282325972</v>
+        <v>-0.008538258152019133</v>
       </c>
       <c r="C46">
-        <v>-0.02952422323802214</v>
+        <v>0.02972230981860186</v>
       </c>
       <c r="D46">
-        <v>0.01706975399121689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009486900458808005</v>
+      </c>
+      <c r="E46">
+        <v>0.05644967750424813</v>
+      </c>
+      <c r="F46">
+        <v>0.0930719885858589</v>
+      </c>
+      <c r="G46">
+        <v>0.06293091707264765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08428677650774208</v>
+        <v>-0.08823145071777021</v>
       </c>
       <c r="C47">
-        <v>-0.07180423569885422</v>
+        <v>0.08185647853888244</v>
       </c>
       <c r="D47">
-        <v>0.02978438943103405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0230318632594941</v>
+      </c>
+      <c r="E47">
+        <v>0.06750978160898251</v>
+      </c>
+      <c r="F47">
+        <v>0.04195720334786907</v>
+      </c>
+      <c r="G47">
+        <v>0.07815463295090463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01876018974080699</v>
+        <v>-0.01666785468709244</v>
       </c>
       <c r="C48">
-        <v>-0.01482243112522172</v>
+        <v>0.01614212161326425</v>
       </c>
       <c r="D48">
-        <v>0.0181667167578801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.008827851271945747</v>
+      </c>
+      <c r="E48">
+        <v>0.06709979571033788</v>
+      </c>
+      <c r="F48">
+        <v>0.07816288828640552</v>
+      </c>
+      <c r="G48">
+        <v>0.05796458357497369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08117097254177563</v>
+        <v>-0.07044679309103449</v>
       </c>
       <c r="C50">
-        <v>-0.08324316549319799</v>
+        <v>0.07638491676837013</v>
       </c>
       <c r="D50">
-        <v>0.0299432941214958</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007823383336033028</v>
+      </c>
+      <c r="E50">
+        <v>0.07424614747829704</v>
+      </c>
+      <c r="F50">
+        <v>0.01748620016758783</v>
+      </c>
+      <c r="G50">
+        <v>0.09436118202181477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01535475476589478</v>
+        <v>-0.009563004352503004</v>
       </c>
       <c r="C51">
-        <v>-0.04998008659568969</v>
+        <v>0.03207433892910519</v>
       </c>
       <c r="D51">
-        <v>-0.03244824392187974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05104754998051509</v>
+      </c>
+      <c r="E51">
+        <v>0.04885616195734842</v>
+      </c>
+      <c r="F51">
+        <v>0.07973698328377889</v>
+      </c>
+      <c r="G51">
+        <v>0.03740272926390015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08353948008927518</v>
+        <v>-0.09583394159933803</v>
       </c>
       <c r="C53">
-        <v>-0.07545114457228105</v>
+        <v>0.08599522146883727</v>
       </c>
       <c r="D53">
-        <v>0.05120386375054865</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05550661667404019</v>
+      </c>
+      <c r="E53">
+        <v>0.0608118292275663</v>
+      </c>
+      <c r="F53">
+        <v>0.03788698539646183</v>
+      </c>
+      <c r="G53">
+        <v>0.07891762877669851</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03227504282616774</v>
+        <v>-0.02704536863467533</v>
       </c>
       <c r="C54">
-        <v>-0.0402637163890156</v>
+        <v>0.03391009195492726</v>
       </c>
       <c r="D54">
-        <v>0.002208288628692151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02267524466176726</v>
+      </c>
+      <c r="E54">
+        <v>0.05650907565573898</v>
+      </c>
+      <c r="F54">
+        <v>0.08622998476236345</v>
+      </c>
+      <c r="G54">
+        <v>0.06390497769201765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07630985752211884</v>
+        <v>-0.08669580924562424</v>
       </c>
       <c r="C55">
-        <v>-0.05666266644068003</v>
+        <v>0.06952395075614026</v>
       </c>
       <c r="D55">
-        <v>0.0561795924177798</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05820550192027718</v>
+      </c>
+      <c r="E55">
+        <v>0.04325032967220502</v>
+      </c>
+      <c r="F55">
+        <v>0.02044374818252633</v>
+      </c>
+      <c r="G55">
+        <v>0.05998789993520693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1474894019358028</v>
+        <v>-0.1493626361518472</v>
       </c>
       <c r="C56">
-        <v>-0.09239115397657892</v>
+        <v>0.1066585653247505</v>
       </c>
       <c r="D56">
-        <v>0.04987395911773197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05491250418102959</v>
+      </c>
+      <c r="E56">
+        <v>0.04184640742889036</v>
+      </c>
+      <c r="F56">
+        <v>-0.00294502161611111</v>
+      </c>
+      <c r="G56">
+        <v>0.04149244427867327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04483878874876285</v>
+        <v>-0.02673075618570057</v>
       </c>
       <c r="C58">
-        <v>-0.02800024518939651</v>
+        <v>0.02629270632190793</v>
       </c>
       <c r="D58">
-        <v>-0.7006467194020146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3726825776206072</v>
+      </c>
+      <c r="E58">
+        <v>0.6636743044868854</v>
+      </c>
+      <c r="F58">
+        <v>-0.4822196816088226</v>
+      </c>
+      <c r="G58">
+        <v>-0.3284361507230453</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1336188872354454</v>
+        <v>-0.1464197938568581</v>
       </c>
       <c r="C59">
-        <v>0.1985818828349803</v>
+        <v>-0.1878019329242968</v>
       </c>
       <c r="D59">
-        <v>-0.02556774892992564</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02675074716091539</v>
+      </c>
+      <c r="E59">
+        <v>0.02852586682271209</v>
+      </c>
+      <c r="F59">
+        <v>0.02645400371068913</v>
+      </c>
+      <c r="G59">
+        <v>-0.02032181703819024</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3083589705636674</v>
+        <v>-0.2783934674667441</v>
       </c>
       <c r="C60">
-        <v>-0.110181699239434</v>
+        <v>0.10861262742403</v>
       </c>
       <c r="D60">
-        <v>-0.158528814162499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2662389298762171</v>
+      </c>
+      <c r="E60">
+        <v>-0.2385921200520869</v>
+      </c>
+      <c r="F60">
+        <v>-0.07379294789397389</v>
+      </c>
+      <c r="G60">
+        <v>0.03756877966039612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0435085736515631</v>
+        <v>-0.04054176191189884</v>
       </c>
       <c r="C61">
-        <v>-0.06398524380692032</v>
+        <v>0.06050795601587802</v>
       </c>
       <c r="D61">
-        <v>-0.01029712332659834</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03851263153803888</v>
+      </c>
+      <c r="E61">
+        <v>0.04899683258946744</v>
+      </c>
+      <c r="F61">
+        <v>0.06677204979606795</v>
+      </c>
+      <c r="G61">
+        <v>0.05816982978255501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01614092706600121</v>
+        <v>-0.01493145547348695</v>
       </c>
       <c r="C63">
-        <v>-0.0341294353527814</v>
+        <v>0.03170475379320807</v>
       </c>
       <c r="D63">
-        <v>0.01601364405189049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01455070958956568</v>
+      </c>
+      <c r="E63">
+        <v>0.05952775791939799</v>
+      </c>
+      <c r="F63">
+        <v>0.05105688329006276</v>
+      </c>
+      <c r="G63">
+        <v>0.06624890691989885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05004722715458658</v>
+        <v>-0.0555809326573523</v>
       </c>
       <c r="C64">
-        <v>-0.04706255408044134</v>
+        <v>0.05725930446611323</v>
       </c>
       <c r="D64">
-        <v>0.001321232647368209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.002808770878516418</v>
+      </c>
+      <c r="E64">
+        <v>0.0358235387069689</v>
+      </c>
+      <c r="F64">
+        <v>0.07155573158711374</v>
+      </c>
+      <c r="G64">
+        <v>0.05052289463505334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08222682223629101</v>
+        <v>-0.06646518568640068</v>
       </c>
       <c r="C65">
-        <v>-0.02916299228455838</v>
+        <v>0.02839811869689236</v>
       </c>
       <c r="D65">
-        <v>-0.05982474516405679</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08537778403770528</v>
+      </c>
+      <c r="E65">
+        <v>0.05568408808381418</v>
+      </c>
+      <c r="F65">
+        <v>0.01041325039914914</v>
+      </c>
+      <c r="G65">
+        <v>0.02054666344558977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06122032473601148</v>
+        <v>-0.05124241450672701</v>
       </c>
       <c r="C66">
-        <v>-0.08964374703385632</v>
+        <v>0.0821011551401781</v>
       </c>
       <c r="D66">
-        <v>-0.03598709020243991</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07185647389984472</v>
+      </c>
+      <c r="E66">
+        <v>0.0553242144301085</v>
+      </c>
+      <c r="F66">
+        <v>0.08063313706178103</v>
+      </c>
+      <c r="G66">
+        <v>0.05621041863170475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05155984706441991</v>
+        <v>-0.04488207816740068</v>
       </c>
       <c r="C67">
-        <v>-0.03159617906719765</v>
+        <v>0.02871383327442156</v>
       </c>
       <c r="D67">
-        <v>0.02226832997870835</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003620280585129261</v>
+      </c>
+      <c r="E67">
+        <v>0.0260278643934524</v>
+      </c>
+      <c r="F67">
+        <v>0.03673533366820295</v>
+      </c>
+      <c r="G67">
+        <v>0.02929489045504001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1313877112313157</v>
+        <v>-0.1537596851011327</v>
       </c>
       <c r="C68">
-        <v>0.2794921363187389</v>
+        <v>-0.2431061864459035</v>
       </c>
       <c r="D68">
-        <v>0.003792510750472797</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01505215127734646</v>
+      </c>
+      <c r="E68">
+        <v>0.03830525975311933</v>
+      </c>
+      <c r="F68">
+        <v>0.008118357064343943</v>
+      </c>
+      <c r="G68">
+        <v>0.03046677321930336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09108779320053501</v>
+        <v>-0.08677684532640358</v>
       </c>
       <c r="C69">
-        <v>-0.07203927763742329</v>
+        <v>0.08960628585874683</v>
       </c>
       <c r="D69">
-        <v>0.04451732440549343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01341335731760657</v>
+      </c>
+      <c r="E69">
+        <v>0.0531250099170452</v>
+      </c>
+      <c r="F69">
+        <v>0.06887627431145198</v>
+      </c>
+      <c r="G69">
+        <v>0.07078286592224289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.119908037294136</v>
+        <v>-0.1461919920226887</v>
       </c>
       <c r="C71">
-        <v>0.2531320055085404</v>
+        <v>-0.2392141058564915</v>
       </c>
       <c r="D71">
-        <v>-0.01680114316617787</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>6.453518037068879e-05</v>
+      </c>
+      <c r="E71">
+        <v>0.05937508011362787</v>
+      </c>
+      <c r="F71">
+        <v>0.02535698140361352</v>
+      </c>
+      <c r="G71">
+        <v>0.05899492240938563</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09216411656634066</v>
+        <v>-0.1000650883555773</v>
       </c>
       <c r="C72">
-        <v>-0.05545347376542032</v>
+        <v>0.0582763842179493</v>
       </c>
       <c r="D72">
-        <v>-0.002456790725066965</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02633155188656963</v>
+      </c>
+      <c r="E72">
+        <v>0.02588741286708222</v>
+      </c>
+      <c r="F72">
+        <v>0.0431067278942562</v>
+      </c>
+      <c r="G72">
+        <v>0.06511116745028515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4042314009163339</v>
+        <v>-0.3415702523665463</v>
       </c>
       <c r="C73">
-        <v>-0.04921402043921735</v>
+        <v>0.0717257903121024</v>
       </c>
       <c r="D73">
-        <v>-0.382246790385051</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.52332545940845</v>
+      </c>
+      <c r="E73">
+        <v>-0.4371462882602306</v>
+      </c>
+      <c r="F73">
+        <v>-0.227882187291213</v>
+      </c>
+      <c r="G73">
+        <v>0.02362570669669605</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1043513895672991</v>
+        <v>-0.1092152976860394</v>
       </c>
       <c r="C74">
-        <v>-0.09575661670487592</v>
+        <v>0.09585071098658458</v>
       </c>
       <c r="D74">
-        <v>0.03100230196717584</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04399518147118949</v>
+      </c>
+      <c r="E74">
+        <v>0.06162821517319217</v>
+      </c>
+      <c r="F74">
+        <v>-0.003981655392695906</v>
+      </c>
+      <c r="G74">
+        <v>0.06737778311361302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2527672785184356</v>
+        <v>-0.2570044712358239</v>
       </c>
       <c r="C75">
-        <v>-0.1042359719196411</v>
+        <v>0.1323380656205775</v>
       </c>
       <c r="D75">
-        <v>0.1204601494801102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.148672800674271</v>
+      </c>
+      <c r="E75">
+        <v>0.04286876035406812</v>
+      </c>
+      <c r="F75">
+        <v>-0.04423218886946399</v>
+      </c>
+      <c r="G75">
+        <v>0.009171619656811665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1135298661634942</v>
+        <v>-0.1274498197066903</v>
       </c>
       <c r="C76">
-        <v>-0.08077913025358986</v>
+        <v>0.0939281318238307</v>
       </c>
       <c r="D76">
-        <v>0.06057635722874136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07498158707445496</v>
+      </c>
+      <c r="E76">
+        <v>0.06635214853346533</v>
+      </c>
+      <c r="F76">
+        <v>0.01896432682104842</v>
+      </c>
+      <c r="G76">
+        <v>0.05610537677597252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07682760331546193</v>
+        <v>-0.06292349685594957</v>
       </c>
       <c r="C77">
-        <v>-0.05320233194944806</v>
+        <v>0.06342490244644741</v>
       </c>
       <c r="D77">
-        <v>-0.05021258041461325</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05002876773251467</v>
+      </c>
+      <c r="E77">
+        <v>0.1004531298651957</v>
+      </c>
+      <c r="F77">
+        <v>0.1604179523096814</v>
+      </c>
+      <c r="G77">
+        <v>-0.1044149999828996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0486433234609519</v>
+        <v>-0.04506047258338904</v>
       </c>
       <c r="C78">
-        <v>-0.04696467781367826</v>
+        <v>0.05626180322209706</v>
       </c>
       <c r="D78">
-        <v>-0.01874822229693943</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05704475492072174</v>
+      </c>
+      <c r="E78">
+        <v>0.05569793680554885</v>
+      </c>
+      <c r="F78">
+        <v>0.0730531774254512</v>
+      </c>
+      <c r="G78">
+        <v>0.05044234333686241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02965935547234045</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04586926214505858</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07504999374891454</v>
+      </c>
+      <c r="E79">
+        <v>0.05854280296999848</v>
+      </c>
+      <c r="F79">
+        <v>-0.01303148408461505</v>
+      </c>
+      <c r="G79">
+        <v>0.06180004766407822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03951890272068431</v>
+        <v>-0.03075210613768935</v>
       </c>
       <c r="C80">
-        <v>-0.04532108548876253</v>
+        <v>0.04846824094872882</v>
       </c>
       <c r="D80">
-        <v>-0.02398353947185598</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03652750228963907</v>
+      </c>
+      <c r="E80">
+        <v>0.0193126925999442</v>
+      </c>
+      <c r="F80">
+        <v>0.04562718541301795</v>
+      </c>
+      <c r="G80">
+        <v>-0.02375095927578998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1388036779279488</v>
+        <v>-0.1387679518479744</v>
       </c>
       <c r="C81">
-        <v>-0.0753103822038475</v>
+        <v>0.09414103083194751</v>
       </c>
       <c r="D81">
-        <v>0.08671859913184053</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1192827640589933</v>
+      </c>
+      <c r="E81">
+        <v>0.06696343944651736</v>
+      </c>
+      <c r="F81">
+        <v>-0.0277419405039487</v>
+      </c>
+      <c r="G81">
+        <v>0.02099615897201418</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1757178539776139</v>
+        <v>-0.2125327972467601</v>
       </c>
       <c r="C82">
-        <v>-0.09301535466286148</v>
+        <v>0.157251630011474</v>
       </c>
       <c r="D82">
-        <v>0.1813236499797329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2459673957963077</v>
+      </c>
+      <c r="E82">
+        <v>-0.02373026411799041</v>
+      </c>
+      <c r="F82">
+        <v>0.05146523079712914</v>
+      </c>
+      <c r="G82">
+        <v>0.04805426251125033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03958900199202254</v>
+        <v>-0.02691287760749061</v>
       </c>
       <c r="C83">
-        <v>-0.03145833513455192</v>
+        <v>0.04337545384016237</v>
       </c>
       <c r="D83">
-        <v>-0.03355142302145774</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02824043213419385</v>
+      </c>
+      <c r="E83">
+        <v>0.02642667835173481</v>
+      </c>
+      <c r="F83">
+        <v>0.04828687533763965</v>
+      </c>
+      <c r="G83">
+        <v>-0.001532419471795637</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-5.574403092039324e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006970902411212296</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001160053808730638</v>
+      </c>
+      <c r="E84">
+        <v>0.0007524729500357742</v>
+      </c>
+      <c r="F84">
+        <v>0.0008412263408912993</v>
+      </c>
+      <c r="G84">
+        <v>0.0007095761228173615</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2202578734563578</v>
+        <v>-0.2031642857515809</v>
       </c>
       <c r="C85">
-        <v>-0.10033811387464</v>
+        <v>0.1158585444997397</v>
       </c>
       <c r="D85">
-        <v>0.151282188629564</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1152381072266655</v>
+      </c>
+      <c r="E85">
+        <v>-0.02821013741678888</v>
+      </c>
+      <c r="F85">
+        <v>-0.09154014022776598</v>
+      </c>
+      <c r="G85">
+        <v>0.0553093055557194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006584409705364984</v>
+        <v>-0.009064972495129277</v>
       </c>
       <c r="C86">
-        <v>-0.0274627192557259</v>
+        <v>0.02029089542391337</v>
       </c>
       <c r="D86">
-        <v>-0.04423501084594095</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05619908786045202</v>
+      </c>
+      <c r="E86">
+        <v>0.07385611750046214</v>
+      </c>
+      <c r="F86">
+        <v>0.1120039327678031</v>
+      </c>
+      <c r="G86">
+        <v>0.05807447993747511</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02415299464594182</v>
+        <v>-0.02432383873477692</v>
       </c>
       <c r="C87">
-        <v>-0.005104020039507562</v>
+        <v>0.01258567083009419</v>
       </c>
       <c r="D87">
-        <v>-0.08294613807078369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07702346781761353</v>
+      </c>
+      <c r="E87">
+        <v>0.12744343141285</v>
+      </c>
+      <c r="F87">
+        <v>0.08113300779578472</v>
+      </c>
+      <c r="G87">
+        <v>0.001617443718144713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1051731602138921</v>
+        <v>-0.09113890958668656</v>
       </c>
       <c r="C88">
-        <v>-0.07608081228923291</v>
+        <v>0.06418625349281751</v>
       </c>
       <c r="D88">
-        <v>0.02794832820233484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.003584671550370714</v>
+      </c>
+      <c r="E88">
+        <v>0.04966156887426591</v>
+      </c>
+      <c r="F88">
+        <v>0.07527717133846602</v>
+      </c>
+      <c r="G88">
+        <v>0.02449882501004988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1870990556878085</v>
+        <v>-0.2229547150902958</v>
       </c>
       <c r="C89">
-        <v>0.3734003889774044</v>
+        <v>-0.3781897880424723</v>
       </c>
       <c r="D89">
-        <v>0.02797359118024817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02840374284791952</v>
+      </c>
+      <c r="E89">
+        <v>0.06746371556801704</v>
+      </c>
+      <c r="F89">
+        <v>0.09704372568694207</v>
+      </c>
+      <c r="G89">
+        <v>-0.02471719098988253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1790102340738541</v>
+        <v>-0.2016415782055519</v>
       </c>
       <c r="C90">
-        <v>0.3300531329721213</v>
+        <v>-0.3073290344582019</v>
       </c>
       <c r="D90">
-        <v>0.03232105859694934</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02683499743766224</v>
+      </c>
+      <c r="E90">
+        <v>0.0666322624108547</v>
+      </c>
+      <c r="F90">
+        <v>0.03760032255871952</v>
+      </c>
+      <c r="G90">
+        <v>0.007155870771362122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.188571910093996</v>
+        <v>-0.1858045470354301</v>
       </c>
       <c r="C91">
-        <v>-0.1284481512999513</v>
+        <v>0.1451196399195175</v>
       </c>
       <c r="D91">
-        <v>0.1103694859617463</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1265420278360659</v>
+      </c>
+      <c r="E91">
+        <v>0.04590563429778231</v>
+      </c>
+      <c r="F91">
+        <v>-0.01087903865843133</v>
+      </c>
+      <c r="G91">
+        <v>0.02562326671525472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1645795225557327</v>
+        <v>-0.1836975513358924</v>
       </c>
       <c r="C92">
-        <v>0.2860400676556263</v>
+        <v>-0.2898581281309563</v>
       </c>
       <c r="D92">
-        <v>0.02809335147333128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02924468750645725</v>
+      </c>
+      <c r="E92">
+        <v>0.06960292641566104</v>
+      </c>
+      <c r="F92">
+        <v>0.07134879553540231</v>
+      </c>
+      <c r="G92">
+        <v>0.01680434225975411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2022252183347669</v>
+        <v>-0.2245605279204139</v>
       </c>
       <c r="C93">
-        <v>0.3365883535164779</v>
+        <v>-0.3174261934785363</v>
       </c>
       <c r="D93">
-        <v>0.03357843862765969</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02149459523854223</v>
+      </c>
+      <c r="E93">
+        <v>0.04027438939239124</v>
+      </c>
+      <c r="F93">
+        <v>0.0145853656091818</v>
+      </c>
+      <c r="G93">
+        <v>0.03799474813426472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.332545978111391</v>
+        <v>-0.336289602641705</v>
       </c>
       <c r="C94">
-        <v>-0.1547226990517375</v>
+        <v>0.1916957715228557</v>
       </c>
       <c r="D94">
-        <v>0.3564363465888583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4323618613769675</v>
+      </c>
+      <c r="E94">
+        <v>-0.0004196079474777465</v>
+      </c>
+      <c r="F94">
+        <v>-0.2391133963243141</v>
+      </c>
+      <c r="G94">
+        <v>-0.4263381625125064</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.114449055035185</v>
+        <v>-0.08491142552572045</v>
       </c>
       <c r="C95">
-        <v>-0.07094148324497609</v>
+        <v>0.06393828834274522</v>
       </c>
       <c r="D95">
-        <v>-0.150124934831972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1829168818899193</v>
+      </c>
+      <c r="E95">
+        <v>-0.08665083499923833</v>
+      </c>
+      <c r="F95">
+        <v>0.5847278742512033</v>
+      </c>
+      <c r="G95">
+        <v>-0.6948657245543228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1957989683655749</v>
+        <v>-0.1873328660838812</v>
       </c>
       <c r="C98">
-        <v>-0.0199167761169836</v>
+        <v>0.04590309513410846</v>
       </c>
       <c r="D98">
-        <v>-0.1338235469822003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2008916228669652</v>
+      </c>
+      <c r="E98">
+        <v>-0.1316305830307372</v>
+      </c>
+      <c r="F98">
+        <v>-0.06455626992071209</v>
+      </c>
+      <c r="G98">
+        <v>0.08288055681081452</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00641652232376775</v>
+        <v>-0.005023331892373824</v>
       </c>
       <c r="C101">
-        <v>-0.03457256141665956</v>
+        <v>0.02953109827906784</v>
       </c>
       <c r="D101">
-        <v>0.01511326797602773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01559011720519378</v>
+      </c>
+      <c r="E101">
+        <v>0.04892815625862638</v>
+      </c>
+      <c r="F101">
+        <v>0.0809892075353095</v>
+      </c>
+      <c r="G101">
+        <v>0.06460368823373168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1250900418240506</v>
+        <v>-0.126718985533444</v>
       </c>
       <c r="C102">
-        <v>-0.06817090168331467</v>
+        <v>0.10035977201566</v>
       </c>
       <c r="D102">
-        <v>0.0420253921736803</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05220347513279324</v>
+      </c>
+      <c r="E102">
+        <v>-0.01171639853389594</v>
+      </c>
+      <c r="F102">
+        <v>0.01838456219026694</v>
+      </c>
+      <c r="G102">
+        <v>0.0003257268431230872</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
